--- a/data/trans_bre/P40_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-11.83371593499201</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-7.508819063779704</v>
+        <v>-7.508819063779715</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1248606390638956</v>
@@ -649,7 +649,7 @@
         <v>-0.1429824389706681</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.09757559604113654</v>
+        <v>-0.09757559604113668</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.58939923489575</v>
+        <v>-14.60082062604147</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.85416784018957</v>
+        <v>-13.65921080355578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.50373087373122</v>
+        <v>-16.75600464236747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.60993937568717</v>
+        <v>-11.32020232062419</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1733829549006369</v>
+        <v>-0.1735575919496466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1665715696178037</v>
+        <v>-0.1644635333112697</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1950381489383207</v>
+        <v>-0.1987607723137527</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1462190579914211</v>
+        <v>-0.144262135307289</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.728067893102738</v>
+        <v>-5.769431145160272</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.430282578966644</v>
+        <v>-4.827887609410135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.357078338188044</v>
+        <v>-7.612028863948534</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.454795596154719</v>
+        <v>-3.674719330842618</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.07061285081135192</v>
+        <v>-0.07245100394120767</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.05703797271757829</v>
+        <v>-0.06028094475003323</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.09092329366522436</v>
+        <v>-0.09253091685776338</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.04695775298079793</v>
+        <v>-0.04930875772559098</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-21.03423041356248</v>
+        <v>-20.77378226632431</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-13.55467354449891</v>
+        <v>-14.04282893484505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.76337878168918</v>
+        <v>-12.59856028255098</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-14.62935245105414</v>
+        <v>-14.45467940759118</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2417534799534265</v>
+        <v>-0.2429565762287727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1598967561830673</v>
+        <v>-0.1658370885294849</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1487004060237881</v>
+        <v>-0.1465496754790747</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1709582387210652</v>
+        <v>-0.1687634799603685</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-13.21662454482682</v>
+        <v>-13.03929653656017</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-6.65215472740709</v>
+        <v>-6.611583913934663</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-5.62172860422986</v>
+        <v>-5.392524356084849</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-8.205488564153884</v>
+        <v>-8.28711324813761</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1577920471407966</v>
+        <v>-0.1574234131831044</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08106811146191505</v>
+        <v>-0.08032719633002612</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.06729943332632239</v>
+        <v>-0.06396831650415839</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1002422205548609</v>
+        <v>-0.1004666467218652</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-6.537268150972874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-6.932765295656451</v>
+        <v>-6.932765295656463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1097780349396723</v>
@@ -849,7 +849,7 @@
         <v>-0.0774147388307522</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.08413847937504132</v>
+        <v>-0.08413847937504144</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.63558163070882</v>
+        <v>-13.73881687638075</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.6305352988915</v>
+        <v>-15.28145326750339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.54723454099826</v>
+        <v>-11.04425348102123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.36406086171713</v>
+        <v>-11.15948092874455</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1571143153584474</v>
+        <v>-0.1590689864565654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1808061163112925</v>
+        <v>-0.1783719963562135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1241829714414049</v>
+        <v>-0.1282282031941057</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1333071763393762</v>
+        <v>-0.1308642786420471</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.033050403984213</v>
+        <v>-5.426810399096644</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.390488116746935</v>
+        <v>-6.459126619876823</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.403616172601204</v>
+        <v>-2.657928928896186</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.997987831253246</v>
+        <v>-2.664344176175168</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.06046597970385469</v>
+        <v>-0.06552616149822191</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.07721527965754646</v>
+        <v>-0.07837474779972577</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.02924898300879217</v>
+        <v>-0.0319120037874368</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.03682107774067469</v>
+        <v>-0.03255839551170697</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-15.26427983247715</v>
+        <v>-15.70456943919802</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.53210151587347</v>
+        <v>-13.37708204140345</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-13.42573031437639</v>
+        <v>-13.09209642761424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-12.09046556667361</v>
+        <v>-11.96945397988876</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1796221379400919</v>
+        <v>-0.183263325886305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.160471116481362</v>
+        <v>-0.1581475511960803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1567982677232251</v>
+        <v>-0.1531889440709429</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1463184017635237</v>
+        <v>-0.1453260621381283</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-8.384972412670505</v>
+        <v>-8.332824581597421</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-6.0602694104904</v>
+        <v>-5.732061891762616</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-5.509148471286298</v>
+        <v>-5.819822379470022</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-5.51541351024976</v>
+        <v>-5.419863792259153</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1019717344345736</v>
+        <v>-0.1011452076633583</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07615682857741496</v>
+        <v>-0.07126328229142671</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.06706570312648576</v>
+        <v>-0.06906495694998557</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.06924572563504916</v>
+        <v>-0.06846949143650792</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-9.169875807405647</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-8.900211066652087</v>
+        <v>-8.900211066652064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1492271823438772</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1091201756124593</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1093937463461446</v>
+        <v>-0.1093937463461443</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.66384889459873</v>
+        <v>-14.44960736317985</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.92880293834195</v>
+        <v>-11.99914445378494</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.20587493934188</v>
+        <v>-11.05235831915747</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.58738828538478</v>
+        <v>-10.57631871169433</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1725927613452854</v>
+        <v>-0.1709872665268461</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1425091586857355</v>
+        <v>-0.1432416018963788</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1317231198538319</v>
+        <v>-0.1312382229641627</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1293817965045846</v>
+        <v>-0.1284460941404389</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.51344914976781</v>
+        <v>-10.62654794118976</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.050062082913815</v>
+        <v>-8.061638918200755</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.260588648162096</v>
+        <v>-7.196961216500893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-7.096458747758591</v>
+        <v>-7.057252101929507</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1257517399123695</v>
+        <v>-0.1280689188119879</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.09825602734287166</v>
+        <v>-0.09780096051043352</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.08701865437180631</v>
+        <v>-0.0862499617650368</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.08899232173366521</v>
+        <v>-0.08815892416070564</v>
       </c>
     </row>
     <row r="19">
